--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEGBESSOU\iCloudDrive\6_Ete22\INF1163-01 Modélisation et conception orientée objet\projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\app\inf1163 projet\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FBD472E-359A-4D39-A439-B4FEF14F49DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339E203E-93AC-4A8C-954D-8ECAD568D239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{42D0C8F0-C429-4306-AA01-3F8905980968}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{42D0C8F0-C429-4306-AA01-3F8905980968}"/>
   </bookViews>
   <sheets>
     <sheet name="locataires" sheetId="1" r:id="rId1"/>
     <sheet name="unités" sheetId="2" r:id="rId2"/>
     <sheet name="baux" sheetId="3" r:id="rId3"/>
     <sheet name="historique de paiement" sheetId="4" r:id="rId4"/>
+    <sheet name="Employé" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="200">
   <si>
     <t>prénom</t>
   </si>
@@ -569,6 +570,75 @@
   </si>
   <si>
     <t>décembre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nom </t>
+  </si>
+  <si>
+    <t>nomUtilisateur</t>
+  </si>
+  <si>
+    <t>motDePasse</t>
+  </si>
+  <si>
+    <t>Ellery</t>
+  </si>
+  <si>
+    <t>Lillia</t>
+  </si>
+  <si>
+    <t>Temple</t>
+  </si>
+  <si>
+    <t>Jaylee</t>
+  </si>
+  <si>
+    <t>Dory</t>
+  </si>
+  <si>
+    <t>Jayda</t>
+  </si>
+  <si>
+    <t>Dikeledi</t>
+  </si>
+  <si>
+    <t>Esther</t>
+  </si>
+  <si>
+    <t>Mireille</t>
+  </si>
+  <si>
+    <t>Florry</t>
+  </si>
+  <si>
+    <t>ellj01</t>
+  </si>
+  <si>
+    <t>lild01</t>
+  </si>
+  <si>
+    <t>teme01</t>
+  </si>
+  <si>
+    <t>jaym01</t>
+  </si>
+  <si>
+    <t>dorf01</t>
+  </si>
+  <si>
+    <t>2e#418DW</t>
+  </si>
+  <si>
+    <t>F0Tg72L$</t>
+  </si>
+  <si>
+    <t>4$3n39Uw</t>
+  </si>
+  <si>
+    <t>498Hg6#&amp;</t>
+  </si>
+  <si>
+    <t>a4^3z28R</t>
   </si>
 </sst>
 </file>
@@ -628,7 +698,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -637,7 +707,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -2190,7 +2259,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9234FE1F-FF96-4C35-A780-D38FDA111C06}">
-  <dimension ref="A2:L15"/>
+  <dimension ref="A2:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3:L10"/>
@@ -2560,9 +2629,6 @@
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G15" s="6"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2576,7 +2642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18683229-A73B-42E8-8BF2-829EA24B5669}">
   <dimension ref="B2:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
@@ -2775,6 +2841,111 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABAF959-C3D8-4A71-858D-C705493D3B99}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\app\inf1163 projet\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339E203E-93AC-4A8C-954D-8ECAD568D239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF97513-F572-4A0D-8A5C-7F5FE248C3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{42D0C8F0-C429-4306-AA01-3F8905980968}"/>
+    <workbookView xWindow="-20805" yWindow="1935" windowWidth="13995" windowHeight="13665" xr2:uid="{42D0C8F0-C429-4306-AA01-3F8905980968}"/>
   </bookViews>
   <sheets>
     <sheet name="locataires" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="202">
   <si>
     <t>prénom</t>
   </si>
@@ -47,18 +47,9 @@
     <t>adresse</t>
   </si>
   <si>
-    <t>téléphone</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
-    <t>type unités</t>
-  </si>
-  <si>
-    <t>cote crédit</t>
-  </si>
-  <si>
     <t>Florent</t>
   </si>
   <si>
@@ -125,9 +116,6 @@
     <t>Truean</t>
   </si>
   <si>
-    <t>Tod en</t>
-  </si>
-  <si>
     <t>Teal</t>
   </si>
   <si>
@@ -158,9 +146,6 @@
     <t>1465 St Jean Baptiste St</t>
   </si>
   <si>
-    <t>1110 rue des Églises Est</t>
-  </si>
-  <si>
     <t>4869 Richford Road</t>
   </si>
   <si>
@@ -191,9 +176,6 @@
     <t>3368 avenue de Port-Royal</t>
   </si>
   <si>
-    <t>1358 René-Lévesque Blvd</t>
-  </si>
-  <si>
     <t>504 chemin Georges</t>
   </si>
   <si>
@@ -248,9 +230,6 @@
     <t>potentiel</t>
   </si>
   <si>
-    <t>type locataire</t>
-  </si>
-  <si>
     <t>annéeConstruction</t>
   </si>
   <si>
@@ -639,6 +618,33 @@
   </si>
   <si>
     <t>a4^3z28R</t>
+  </si>
+  <si>
+    <t>prenom</t>
+  </si>
+  <si>
+    <t>telephone</t>
+  </si>
+  <si>
+    <t>typeLocataire</t>
+  </si>
+  <si>
+    <t>typeUnites</t>
+  </si>
+  <si>
+    <t>coteCredit</t>
+  </si>
+  <si>
+    <t>1110 rue des Eglises Est</t>
+  </si>
+  <si>
+    <t>Toden</t>
+  </si>
+  <si>
+    <t>1358 Rene-Levesque Blvd</t>
+  </si>
+  <si>
+    <t>residentiel</t>
   </si>
 </sst>
 </file>
@@ -1024,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6D0A01-9956-49E9-B0EE-E2DDB5E0B1CD}">
   <dimension ref="B2:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,46 +1046,46 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>194</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>196</v>
       </c>
       <c r="I2" t="s">
-        <v>5</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>646</v>
@@ -1088,22 +1094,22 @@
     <row r="4" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="I4">
         <v>657</v>
@@ -1112,22 +1118,22 @@
     <row r="5" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>692</v>
@@ -1136,22 +1142,22 @@
     <row r="6" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="I6">
         <v>787</v>
@@ -1160,22 +1166,22 @@
     <row r="7" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="I7">
         <v>763</v>
@@ -1184,22 +1190,22 @@
     <row r="8" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
         <v>61</v>
       </c>
-      <c r="G8" t="s">
-        <v>67</v>
-      </c>
       <c r="H8" t="s">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="I8">
         <v>682</v>
@@ -1208,22 +1214,22 @@
     <row r="9" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>715</v>
@@ -1232,22 +1238,22 @@
     <row r="10" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>812</v>
@@ -1256,22 +1262,22 @@
     <row r="11" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>775</v>
@@ -1280,22 +1286,22 @@
     <row r="12" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H12" t="s">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="I12">
         <v>758</v>
@@ -1304,22 +1310,22 @@
     <row r="13" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>199</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H13" t="s">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="I13">
         <v>718</v>
@@ -1328,22 +1334,22 @@
     <row r="14" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H14" t="s">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="I14">
         <v>811</v>
@@ -1352,22 +1358,22 @@
     <row r="15" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" t="s">
         <v>62</v>
       </c>
-      <c r="G15" t="s">
-        <v>68</v>
-      </c>
       <c r="H15" t="s">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="I15">
         <v>692</v>
@@ -1376,22 +1382,22 @@
     <row r="16" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H16" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>733</v>
@@ -1400,22 +1406,22 @@
     <row r="17" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H17" t="s">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="I17">
         <v>738</v>
@@ -1452,51 +1458,51 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="J2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="K2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="M2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E3">
         <v>2010</v>
@@ -1508,13 +1514,13 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="I3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="J3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="K3">
         <v>2700</v>
@@ -1528,13 +1534,13 @@
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E4">
         <v>2013</v>
@@ -1546,13 +1552,13 @@
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="I4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="K4">
         <v>2700</v>
@@ -1566,13 +1572,13 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E5">
         <v>1998</v>
@@ -1584,13 +1590,13 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="I5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="K5">
         <v>1800</v>
@@ -1604,13 +1610,13 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E6">
         <v>2006</v>
@@ -1622,13 +1628,13 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="I6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="J6" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="K6">
         <v>2200</v>
@@ -1642,13 +1648,13 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E7">
         <v>2014</v>
@@ -1660,13 +1666,13 @@
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="I7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="J7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="K7">
         <v>2700</v>
@@ -1680,13 +1686,13 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E8">
         <v>1996</v>
@@ -1698,13 +1704,13 @@
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="I8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="J8" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="K8">
         <v>2200</v>
@@ -1718,13 +1724,13 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
         <v>91</v>
-      </c>
-      <c r="D9" t="s">
-        <v>98</v>
       </c>
       <c r="E9">
         <v>2010</v>
@@ -1736,13 +1742,13 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="I9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="K9">
         <v>1200</v>
@@ -1756,13 +1762,13 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
         <v>84</v>
       </c>
-      <c r="C10" t="s">
-        <v>91</v>
-      </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E10">
         <v>2011</v>
@@ -1774,13 +1780,13 @@
         <v>4</v>
       </c>
       <c r="H10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
         <v>112</v>
-      </c>
-      <c r="I10" t="s">
-        <v>116</v>
-      </c>
-      <c r="J10" t="s">
-        <v>119</v>
       </c>
       <c r="K10">
         <v>1800</v>
@@ -1794,13 +1800,13 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E11">
         <v>2014</v>
@@ -1812,13 +1818,13 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
         <v>112</v>
-      </c>
-      <c r="I11" t="s">
-        <v>114</v>
-      </c>
-      <c r="J11" t="s">
-        <v>119</v>
       </c>
       <c r="K11">
         <v>1500</v>
@@ -1832,13 +1838,13 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E12">
         <v>1997</v>
@@ -1850,13 +1856,13 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="K12">
         <v>1500</v>
@@ -1870,13 +1876,13 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E13">
         <v>2006</v>
@@ -1888,13 +1894,13 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="I13" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="K13">
         <v>1500</v>
@@ -1908,13 +1914,13 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E14">
         <v>1995</v>
@@ -1926,13 +1932,13 @@
         <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="I14" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J14" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="K14">
         <v>2700</v>
@@ -1946,13 +1952,13 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E15">
         <v>2010</v>
@@ -1964,13 +1970,13 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="I15" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J15" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="K15">
         <v>900</v>
@@ -1987,10 +1993,10 @@
         <v>201</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E16">
         <v>2006</v>
@@ -2002,13 +2008,13 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="I16" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" t="s">
         <v>114</v>
-      </c>
-      <c r="J16" t="s">
-        <v>121</v>
       </c>
       <c r="K16">
         <v>1500</v>
@@ -2025,10 +2031,10 @@
         <v>202</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E17">
         <v>2001</v>
@@ -2040,13 +2046,13 @@
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="I17" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J17" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="K17">
         <v>1200</v>
@@ -2063,10 +2069,10 @@
         <v>203</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E18">
         <v>2016</v>
@@ -2078,13 +2084,13 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="I18" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="J18" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K18">
         <v>900</v>
@@ -2101,10 +2107,10 @@
         <v>204</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E19">
         <v>1994</v>
@@ -2116,13 +2122,13 @@
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="I19" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="J19" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K19">
         <v>1200</v>
@@ -2139,10 +2145,10 @@
         <v>205</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E20">
         <v>2013</v>
@@ -2154,13 +2160,13 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="I20" t="s">
+        <v>109</v>
+      </c>
+      <c r="J20" t="s">
         <v>116</v>
-      </c>
-      <c r="J20" t="s">
-        <v>123</v>
       </c>
       <c r="K20">
         <v>900</v>
@@ -2177,10 +2183,10 @@
         <v>206</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E21">
         <v>2018</v>
@@ -2192,13 +2198,13 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="I21" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="K21">
         <v>1500</v>
@@ -2215,10 +2221,10 @@
         <v>207</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E22">
         <v>1998</v>
@@ -2230,13 +2236,13 @@
         <v>2</v>
       </c>
       <c r="H22" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="I22" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="J22" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="K22">
         <v>1200</v>
@@ -2275,75 +2281,75 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" t="s">
         <v>125</v>
       </c>
-      <c r="E2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K2" t="s">
-        <v>132</v>
-      </c>
       <c r="L2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E3">
         <v>2700</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" t="s">
         <v>134</v>
       </c>
-      <c r="H3" t="s">
-        <v>141</v>
-      </c>
       <c r="I3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="J3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="L3">
         <f>+unités!K3+unités!L3</f>
@@ -2352,37 +2358,37 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E4">
         <v>2200</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="H4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I4" t="s">
+        <v>143</v>
+      </c>
+      <c r="J4" t="s">
         <v>142</v>
       </c>
-      <c r="I4" t="s">
-        <v>150</v>
-      </c>
-      <c r="J4" t="s">
-        <v>149</v>
-      </c>
       <c r="K4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="L4">
         <f>+unités!K6+unités!L6+unités!M6</f>
@@ -2391,37 +2397,37 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E5">
         <v>2700</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="I5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="J5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="L5">
         <f>+unités!K7+unités!L7+unités!M7</f>
@@ -2430,37 +2436,37 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E6">
         <v>2200</v>
       </c>
       <c r="F6" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G6" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="I6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="J6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="K6" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="L6">
         <f>+unités!K8+unités!M8</f>
@@ -2469,37 +2475,37 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E7">
         <v>1500</v>
       </c>
       <c r="F7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="I7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="J7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="L7">
         <f>+unités!K11+unités!L11+unités!M11</f>
@@ -2508,37 +2514,37 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B8" s="3">
         <v>201</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E8">
         <v>1500</v>
       </c>
       <c r="F8" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H8" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="I8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="J8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="L8">
         <f>+unités!K16+unités!L16+unités!M16</f>
@@ -2547,37 +2553,37 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B9" s="3">
         <v>203</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E9">
         <v>900</v>
       </c>
       <c r="F9" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H9" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="I9" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="J9" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="K9" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="L9">
         <f>+unités!K18+unités!M18</f>
@@ -2586,37 +2592,37 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B10" s="3">
         <v>207</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E10">
         <v>1200</v>
       </c>
       <c r="F10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H10" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="I10" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="J10" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K10" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="L10">
         <f>+unités!K22+unités!L22</f>
@@ -2654,66 +2660,66 @@
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K2" t="s">
+        <v>163</v>
+      </c>
+      <c r="L2" t="s">
         <v>164</v>
       </c>
-      <c r="C2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="M2" t="s">
         <v>165</v>
       </c>
-      <c r="G2" t="s">
+      <c r="N2" t="s">
         <v>166</v>
       </c>
-      <c r="H2" t="s">
+      <c r="O2" t="s">
         <v>167</v>
       </c>
-      <c r="I2" t="s">
+      <c r="P2" t="s">
         <v>168</v>
       </c>
-      <c r="J2" t="s">
+      <c r="Q2" t="s">
         <v>169</v>
-      </c>
-      <c r="K2" t="s">
-        <v>170</v>
-      </c>
-      <c r="L2" t="s">
-        <v>171</v>
-      </c>
-      <c r="M2" t="s">
-        <v>172</v>
-      </c>
-      <c r="N2" t="s">
-        <v>173</v>
-      </c>
-      <c r="O2" t="s">
-        <v>174</v>
-      </c>
-      <c r="P2" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="S3">
         <v>2775</v>
@@ -2721,16 +2727,16 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="S4">
         <v>2375</v>
@@ -2738,16 +2744,16 @@
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="S5">
         <v>2875</v>
@@ -2755,16 +2761,16 @@
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E6" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="S6">
         <v>2300</v>
@@ -2772,16 +2778,16 @@
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S7">
         <v>1675</v>
@@ -2789,16 +2795,16 @@
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S8">
         <v>1730</v>
@@ -2806,16 +2812,16 @@
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S9">
         <v>1010</v>
@@ -2823,16 +2829,16 @@
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S10">
         <v>1320</v>
@@ -2848,7 +2854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABAF959-C3D8-4A71-858D-C705493D3B99}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2861,86 +2867,86 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D4" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D5" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D6" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\app\inf1163 projet\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF97513-F572-4A0D-8A5C-7F5FE248C3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C0BF6A-BD4E-44AF-968F-1D1E339711F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20805" yWindow="1935" windowWidth="13995" windowHeight="13665" xr2:uid="{42D0C8F0-C429-4306-AA01-3F8905980968}"/>
+    <workbookView xWindow="-28365" yWindow="450" windowWidth="21165" windowHeight="13665" activeTab="2" xr2:uid="{42D0C8F0-C429-4306-AA01-3F8905980968}"/>
   </bookViews>
   <sheets>
     <sheet name="locataires" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="203">
   <si>
     <t>prénom</t>
   </si>
@@ -395,9 +395,6 @@
     <t>Kenya Schmitt</t>
   </si>
   <si>
-    <t>typeUnités</t>
-  </si>
-  <si>
     <t>locataire</t>
   </si>
   <si>
@@ -410,9 +407,6 @@
     <t>idAssurance</t>
   </si>
   <si>
-    <t>revouvelabilité</t>
-  </si>
-  <si>
     <t>remisage</t>
   </si>
   <si>
@@ -645,6 +639,15 @@
   </si>
   <si>
     <t>residentiel</t>
+  </si>
+  <si>
+    <t>idUnites</t>
+  </si>
+  <si>
+    <t>date entree</t>
+  </si>
+  <si>
+    <t>revouvelabiliter</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6D0A01-9956-49E9-B0EE-E2DDB5E0B1CD}">
   <dimension ref="B2:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -1049,22 +1052,22 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H2" t="s">
         <v>194</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>195</v>
-      </c>
-      <c r="H2" t="s">
-        <v>196</v>
-      </c>
-      <c r="I2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -1100,7 +1103,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
@@ -1109,7 +1112,7 @@
         <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I4">
         <v>657</v>
@@ -1157,7 +1160,7 @@
         <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I6">
         <v>787</v>
@@ -1181,7 +1184,7 @@
         <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I7">
         <v>763</v>
@@ -1205,7 +1208,7 @@
         <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I8">
         <v>682</v>
@@ -1301,7 +1304,7 @@
         <v>62</v>
       </c>
       <c r="H12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I12">
         <v>758</v>
@@ -1310,7 +1313,7 @@
     <row r="13" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -1325,7 +1328,7 @@
         <v>62</v>
       </c>
       <c r="H13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I13">
         <v>718</v>
@@ -1349,7 +1352,7 @@
         <v>62</v>
       </c>
       <c r="H14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I14">
         <v>811</v>
@@ -1373,7 +1376,7 @@
         <v>62</v>
       </c>
       <c r="H15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I15">
         <v>692</v>
@@ -1388,7 +1391,7 @@
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F16" t="s">
         <v>59</v>
@@ -1421,7 +1424,7 @@
         <v>62</v>
       </c>
       <c r="H17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I17">
         <v>738</v>
@@ -1458,7 +1461,7 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1485,13 +1488,13 @@
         <v>68</v>
       </c>
       <c r="K2" t="s">
+        <v>142</v>
+      </c>
+      <c r="L2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" t="s">
         <v>144</v>
-      </c>
-      <c r="L2" t="s">
-        <v>145</v>
-      </c>
-      <c r="M2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
@@ -2267,12 +2270,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9234FE1F-FF96-4C35-A780-D38FDA111C06}">
   <dimension ref="A2:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="14.140625" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" customWidth="1"/>
@@ -2281,40 +2286,40 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" t="s">
         <v>120</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>121</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J2" t="s">
         <v>122</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>123</v>
       </c>
-      <c r="J2" t="s">
-        <v>124</v>
-      </c>
-      <c r="K2" t="s">
-        <v>125</v>
-      </c>
       <c r="L2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2328,28 +2333,28 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>199</v>
       </c>
       <c r="E3">
         <v>2700</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L3">
         <f>+unités!K3+unités!L3</f>
@@ -2358,7 +2363,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>73</v>
@@ -2367,28 +2372,28 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>199</v>
       </c>
       <c r="E4">
         <v>2200</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L4">
         <f>+unités!K6+unités!L6+unités!M6</f>
@@ -2397,7 +2402,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>74</v>
@@ -2406,28 +2411,28 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>199</v>
       </c>
       <c r="E5">
         <v>2700</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L5">
         <f>+unités!K7+unités!L7+unités!M7</f>
@@ -2436,7 +2441,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>75</v>
@@ -2445,28 +2450,28 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>199</v>
       </c>
       <c r="E6">
         <v>2200</v>
       </c>
       <c r="F6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L6">
         <f>+unités!K8+unités!M8</f>
@@ -2475,7 +2480,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>78</v>
@@ -2484,28 +2489,28 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>199</v>
       </c>
       <c r="E7">
         <v>1500</v>
       </c>
       <c r="F7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" t="s">
         <v>130</v>
       </c>
-      <c r="G7" t="s">
-        <v>132</v>
-      </c>
       <c r="H7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L7">
         <f>+unités!K11+unités!L11+unités!M11</f>
@@ -2514,7 +2519,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B8" s="3">
         <v>201</v>
@@ -2529,22 +2534,22 @@
         <v>1500</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L8">
         <f>+unités!K16+unités!L16+unités!M16</f>
@@ -2553,7 +2558,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B9" s="3">
         <v>203</v>
@@ -2568,22 +2573,22 @@
         <v>900</v>
       </c>
       <c r="F9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" t="s">
         <v>130</v>
       </c>
-      <c r="G9" t="s">
-        <v>132</v>
-      </c>
       <c r="H9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" t="s">
+        <v>141</v>
+      </c>
+      <c r="J9" t="s">
+        <v>141</v>
+      </c>
+      <c r="K9" t="s">
         <v>140</v>
-      </c>
-      <c r="I9" t="s">
-        <v>143</v>
-      </c>
-      <c r="J9" t="s">
-        <v>143</v>
-      </c>
-      <c r="K9" t="s">
-        <v>142</v>
       </c>
       <c r="L9">
         <f>+unités!K18+unités!M18</f>
@@ -2592,7 +2597,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B10" s="3">
         <v>207</v>
@@ -2607,22 +2612,22 @@
         <v>1200</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H10" t="s">
+        <v>139</v>
+      </c>
+      <c r="I10" t="s">
         <v>141</v>
       </c>
-      <c r="I10" t="s">
-        <v>143</v>
-      </c>
       <c r="J10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L10">
         <f>+unités!K22+unités!L22</f>
@@ -2660,52 +2665,52 @@
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" t="s">
         <v>157</v>
       </c>
-      <c r="C2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>158</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>159</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>160</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>161</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>162</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>163</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>164</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>165</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>166</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>167</v>
-      </c>
-      <c r="P2" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
@@ -2716,10 +2721,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S3">
         <v>2775</v>
@@ -2727,16 +2732,16 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S4">
         <v>2375</v>
@@ -2744,16 +2749,16 @@
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="S5">
         <v>2875</v>
@@ -2761,16 +2766,16 @@
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="S6">
         <v>2300</v>
@@ -2778,16 +2783,16 @@
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
       <c r="D7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" t="s">
         <v>130</v>
-      </c>
-      <c r="E7" t="s">
-        <v>132</v>
       </c>
       <c r="S7">
         <v>1675</v>
@@ -2795,16 +2800,16 @@
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S8">
         <v>1730</v>
@@ -2812,16 +2817,16 @@
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
       </c>
       <c r="D9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" t="s">
         <v>130</v>
-      </c>
-      <c r="E9" t="s">
-        <v>132</v>
       </c>
       <c r="S9">
         <v>1010</v>
@@ -2829,16 +2834,16 @@
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S10">
         <v>1320</v>
@@ -2867,86 +2872,86 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\app\inf1163 projet\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C0BF6A-BD4E-44AF-968F-1D1E339711F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20B0462-E358-4C1A-88E7-ED69819FD5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28365" yWindow="450" windowWidth="21165" windowHeight="13665" activeTab="2" xr2:uid="{42D0C8F0-C429-4306-AA01-3F8905980968}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{42D0C8F0-C429-4306-AA01-3F8905980968}"/>
   </bookViews>
   <sheets>
     <sheet name="locataires" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="205">
   <si>
     <t>prénom</t>
   </si>
@@ -398,9 +398,6 @@
     <t>locataire</t>
   </si>
   <si>
-    <t>date entrée</t>
-  </si>
-  <si>
     <t>date de sortie</t>
   </si>
   <si>
@@ -509,9 +506,6 @@
     <t>idBail</t>
   </si>
   <si>
-    <t>janvier</t>
-  </si>
-  <si>
     <t>février</t>
   </si>
   <si>
@@ -530,9 +524,6 @@
     <t>juillet</t>
   </si>
   <si>
-    <t>août</t>
-  </si>
-  <si>
     <t>septembre</t>
   </si>
   <si>
@@ -648,6 +639,21 @@
   </si>
   <si>
     <t>revouvelabiliter</t>
+  </si>
+  <si>
+    <t>dateEntree</t>
+  </si>
+  <si>
+    <t>dateSortie</t>
+  </si>
+  <si>
+    <t>01/09/2023</t>
+  </si>
+  <si>
+    <t>aout</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -1052,22 +1058,22 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I2" t="s">
         <v>192</v>
-      </c>
-      <c r="G2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H2" t="s">
-        <v>194</v>
-      </c>
-      <c r="I2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -1103,7 +1109,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
@@ -1112,7 +1118,7 @@
         <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I4">
         <v>657</v>
@@ -1160,7 +1166,7 @@
         <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I6">
         <v>787</v>
@@ -1184,7 +1190,7 @@
         <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I7">
         <v>763</v>
@@ -1208,7 +1214,7 @@
         <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I8">
         <v>682</v>
@@ -1304,7 +1310,7 @@
         <v>62</v>
       </c>
       <c r="H12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I12">
         <v>758</v>
@@ -1313,7 +1319,7 @@
     <row r="13" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -1328,7 +1334,7 @@
         <v>62</v>
       </c>
       <c r="H13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I13">
         <v>718</v>
@@ -1352,7 +1358,7 @@
         <v>62</v>
       </c>
       <c r="H14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I14">
         <v>811</v>
@@ -1376,7 +1382,7 @@
         <v>62</v>
       </c>
       <c r="H15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I15">
         <v>692</v>
@@ -1391,7 +1397,7 @@
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F16" t="s">
         <v>59</v>
@@ -1424,7 +1430,7 @@
         <v>62</v>
       </c>
       <c r="H17" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I17">
         <v>738</v>
@@ -1461,7 +1467,7 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1488,13 +1494,13 @@
         <v>68</v>
       </c>
       <c r="K2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L2" t="s">
         <v>142</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>143</v>
-      </c>
-      <c r="M2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
@@ -2270,8 +2276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9234FE1F-FF96-4C35-A780-D38FDA111C06}">
   <dimension ref="A2:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2286,40 +2292,40 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
         <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" t="s">
+        <v>199</v>
+      </c>
+      <c r="J2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2" t="s">
         <v>145</v>
-      </c>
-      <c r="F2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I2" t="s">
-        <v>202</v>
-      </c>
-      <c r="J2" t="s">
-        <v>122</v>
-      </c>
-      <c r="K2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2333,28 +2339,28 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E3">
         <v>2700</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="H3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K3" t="s">
         <v>140</v>
-      </c>
-      <c r="J3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K3" t="s">
-        <v>141</v>
       </c>
       <c r="L3">
         <f>+unités!K3+unités!L3</f>
@@ -2363,7 +2369,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>73</v>
@@ -2372,28 +2378,28 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E4">
         <v>2200</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="H4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L4">
         <f>+unités!K6+unités!L6+unités!M6</f>
@@ -2402,7 +2408,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>74</v>
@@ -2411,28 +2417,28 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E5">
         <v>2700</v>
       </c>
       <c r="F5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L5">
         <f>+unités!K7+unités!L7+unités!M7</f>
@@ -2441,7 +2447,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>75</v>
@@ -2450,28 +2456,28 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E6">
         <v>2200</v>
       </c>
       <c r="F6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L6">
         <f>+unités!K8+unités!M8</f>
@@ -2480,7 +2486,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>78</v>
@@ -2489,28 +2495,28 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E7">
         <v>1500</v>
       </c>
       <c r="F7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L7">
         <f>+unités!K11+unités!L11+unités!M11</f>
@@ -2519,7 +2525,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" s="3">
         <v>201</v>
@@ -2534,22 +2540,22 @@
         <v>1500</v>
       </c>
       <c r="F8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L8">
         <f>+unités!K16+unités!L16+unités!M16</f>
@@ -2558,7 +2564,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B9" s="3">
         <v>203</v>
@@ -2573,22 +2579,22 @@
         <v>900</v>
       </c>
       <c r="F9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L9">
         <f>+unités!K18+unités!M18</f>
@@ -2597,7 +2603,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B10" s="3">
         <v>207</v>
@@ -2612,22 +2618,22 @@
         <v>1200</v>
       </c>
       <c r="F10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J10" t="s">
         <v>139</v>
       </c>
-      <c r="I10" t="s">
-        <v>141</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>140</v>
-      </c>
-      <c r="K10" t="s">
-        <v>141</v>
       </c>
       <c r="L10">
         <f>+unités!K22+unités!L22</f>
@@ -2653,8 +2659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18683229-A73B-42E8-8BF2-829EA24B5669}">
   <dimension ref="B2:S10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2665,52 +2671,52 @@
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
         <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>201</v>
       </c>
       <c r="F2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" t="s">
         <v>156</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>157</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>158</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>159</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>160</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
+        <v>203</v>
+      </c>
+      <c r="N2" t="s">
         <v>161</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>162</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>163</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>164</v>
-      </c>
-      <c r="O2" t="s">
-        <v>165</v>
-      </c>
-      <c r="P2" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
@@ -2721,10 +2727,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="S3">
         <v>2775</v>
@@ -2732,16 +2738,16 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="S4">
         <v>2375</v>
@@ -2749,16 +2755,16 @@
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S5">
         <v>2875</v>
@@ -2766,16 +2772,16 @@
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S6">
         <v>2300</v>
@@ -2783,16 +2789,16 @@
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="S7">
         <v>1675</v>
@@ -2800,16 +2806,16 @@
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S8">
         <v>1730</v>
@@ -2817,16 +2823,16 @@
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="S9">
         <v>1010</v>
@@ -2834,16 +2840,16 @@
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S10">
         <v>1320</v>
@@ -2872,86 +2878,86 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
